--- a/output/aggregate_tables/Analysis Group Statistics/Sharks_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Sharks_summary.xlsx
@@ -22,9 +22,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -159,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -184,6 +185,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D2" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="n">
         <v>7</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>6</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>10</v>
@@ -647,10 +649,10 @@
         <v>10</v>
       </c>
       <c r="I2" s="4" t="n">
+        <v>26.08695652173913</v>
+      </c>
+      <c r="J2" s="4" t="n">
         <v>30.43478260869566</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>26.08695652173913</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>43.47826086956522</v>
@@ -751,10 +753,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>5</v>
@@ -763,25 +765,25 @@
         <v>10</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>23.80952380952381</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>47.61904761904761</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>52.38095238095239</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>47.61904761904761</v>
+      <c r="I2" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -792,28 +794,28 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>50</v>
+      <c r="I3" s="4" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>66.66666666666666</v>
       </c>
       <c r="K3" s="3" t="n">
         <v>0</v>
@@ -838,10 +840,10 @@
         <v>23</v>
       </c>
       <c r="D4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="n">
         <v>7</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>6</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>10</v>
@@ -853,10 +855,10 @@
         <v>10</v>
       </c>
       <c r="I4" s="4" t="n">
+        <v>26.08695652173913</v>
+      </c>
+      <c r="J4" s="4" t="n">
         <v>30.43478260869566</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>26.08695652173913</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>43.47826086956522</v>
@@ -919,10 +921,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>5</v>
@@ -936,13 +938,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>1</v>
@@ -961,7 +963,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>1</v>
@@ -1060,7 +1062,7 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>5</v>
@@ -1069,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>5</v>
@@ -1078,25 +1080,25 @@
         <v>10</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>23.80952380952381</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>47.61904761904761</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>52.38095238095239</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>47.61904761904761</v>
+      <c r="J2" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1106,10 +1108,10 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>1</v>
@@ -1118,22 +1120,22 @@
         <v>1</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>50</v>
+      <c r="J3" s="4" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>66.66666666666666</v>
       </c>
       <c r="L3" s="3" t="n">
         <v>0</v>
@@ -1155,16 +1157,16 @@
         <v>23</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="n">
         <v>7</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>6</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>10</v>
@@ -1176,10 +1178,10 @@
         <v>10</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>26.08695652173913</v>
+      </c>
+      <c r="K4" s="4" t="n">
         <v>30.43478260869566</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>26.08695652173913</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>43.47826086956522</v>
@@ -1401,10 +1403,10 @@
         <v>23</v>
       </c>
       <c r="D4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="n">
         <v>7</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>6</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>10</v>
@@ -1416,10 +1418,10 @@
         <v>10</v>
       </c>
       <c r="I4" s="4" t="n">
+        <v>26.08695652173913</v>
+      </c>
+      <c r="J4" s="4" t="n">
         <v>30.43478260869566</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>26.08695652173913</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>43.47826086956522</v>
@@ -1559,34 +1561,34 @@
         </is>
       </c>
       <c r="B4" s="11" t="n">
-        <v>0.053304665</v>
+        <v>0.04823728</v>
       </c>
       <c r="C4" s="11" t="n">
-        <v>0.04703494</v>
+        <v>0.05156571000000001</v>
       </c>
       <c r="D4" s="11" t="n">
-        <v>0.023091265</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.100339605</v>
+        <v>0.02192673</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>0.09980299000000001</v>
       </c>
       <c r="F4" s="11" t="n">
-        <v>0.023091265</v>
+        <v>0.02192673</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>43.18584564785131</v>
+        <v>39.62654313178409</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>38.10630193240962</v>
+        <v>42.36082199153995</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.70785241973908</v>
+        <v>18.01263487667597</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>81.29214758026093</v>
+        <v>81.98736512332404</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.70785241973908</v>
+        <v>18.01263487667597</v>
       </c>
     </row>
   </sheetData>
@@ -1704,34 +1706,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>0.05292767499999999</v>
+        <v>0.04786028999999999</v>
       </c>
       <c r="C4" s="11" t="n">
         <v>0.04703494</v>
       </c>
       <c r="D4" s="11" t="n">
-        <v>0.023091265</v>
+        <v>0.02192673</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0.09996261499999999</v>
+        <v>0.09489523</v>
       </c>
       <c r="F4" s="11" t="n">
-        <v>0.023091265</v>
+        <v>0.02192673</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>43.01178881966175</v>
+        <v>40.96857303198816</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>38.22304505961129</v>
+        <v>40.26207059015275</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.76516612072695</v>
+        <v>18.76935637785909</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>81.23483387927304</v>
+        <v>81.2306436221409</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.76516612072695</v>
+        <v>18.76935637785909</v>
       </c>
     </row>
     <row r="5">
@@ -1741,23 +1743,23 @@
       <c r="B5" s="13" t="n">
         <v>0.00037699</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>0</v>
+      <c r="C5" s="14" t="n">
+        <v>0.004530770000000001</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="13" t="n">
-        <v>0.00037699</v>
+      <c r="E5" s="14" t="n">
+        <v>0.004907760000000001</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>0</v>
+      <c r="G5" s="4" t="n">
+        <v>7.681508468221756</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>92.31849153177825</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>0</v>
@@ -1776,34 +1778,34 @@
         </is>
       </c>
       <c r="B6" s="11" t="n">
-        <v>0.05330466499999999</v>
+        <v>0.04823727999999999</v>
       </c>
       <c r="C6" s="11" t="n">
-        <v>0.04703494</v>
+        <v>0.05156571000000001</v>
       </c>
       <c r="D6" s="11" t="n">
-        <v>0.023091265</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.100339605</v>
+        <v>0.02192673</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>0.09980298999999999</v>
       </c>
       <c r="F6" s="11" t="n">
-        <v>0.023091265</v>
+        <v>0.02192673</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>43.1858456478513</v>
+        <v>39.62654313178408</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>38.10630193240962</v>
+        <v>42.36082199153995</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>18.70785241973908</v>
+        <v>18.01263487667597</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>81.29214758026092</v>
+        <v>81.98736512332403</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>18.70785241973908</v>
+        <v>18.01263487667597</v>
       </c>
     </row>
   </sheetData>
@@ -1923,19 +1925,19 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>43.18584564785131</v>
+        <v>39.62654313178409</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>38.10630193240962</v>
+        <v>42.36082199153995</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>18.70785241973908</v>
+        <v>18.01263487667597</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>81.29214758026093</v>
+        <v>81.98736512332404</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>18.70785241973908</v>
+        <v>18.01263487667597</v>
       </c>
     </row>
   </sheetData>
